--- a/Modelagem/Modelo-03-Fisico.xlsx
+++ b/Modelagem/Modelo-03-Fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44346823858\Documents\1-Docs\Senai_Spmedgroup_sprint1_bd_tarde_IsraelOliveira\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Israel\Documents\Docs\SENAI\Sprint1-BD-Repositories\Senai_Spmedgroup_sprint1_bd_tarde_IsraelOliveira\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA26C1-D346-4F59-B13C-A6C1E2A994AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44789DC8-7F93-430C-9E62-389D835CE431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="672" activeTab="8" xr2:uid="{CF986AF9-BC9C-4563-9460-7354E7112C99}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="672" firstSheet="2" activeTab="5" xr2:uid="{CF986AF9-BC9C-4563-9460-7354E7112C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Enderecos" sheetId="9" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Adm" sheetId="11" r:id="rId7"/>
     <sheet name="Status" sheetId="10" r:id="rId8"/>
     <sheet name="Consulta" sheetId="12" r:id="rId9"/>
+    <sheet name="Usuarios" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="146">
   <si>
     <t>IdEndereco</t>
   </si>
@@ -465,6 +466,12 @@
   </si>
   <si>
     <t>Enderecos</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>IdUsuario</t>
   </si>
 </sst>
 </file>
@@ -534,7 +541,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +701,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,9 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,21 +769,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -785,9 +788,6 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,8 +800,14 @@
     <xf numFmtId="20" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,8 +821,8 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,14 +833,60 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1164,230 +1216,230 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>532</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>240</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>1578</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>2927</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>120</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>66</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>945</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>232</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1397,6 +1449,219 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959C9D01-96D1-4FA4-B741-4B2412ACAB68}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{DB251F90-2282-4E8D-B2B4-7945DA3EB4A5}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{1765F8A6-A61B-4E4A-9917-089D5DF2238D}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{6CC1884C-F100-4BEA-B8A2-BDDF9A6AD74A}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{E40681E1-D866-46F5-91AB-DF8FFA3DC6AB}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{ED688E19-1023-4BF6-89B3-C79634B9561F}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{20B78BEE-341A-4D31-B7EF-EA095E525DE9}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{2B1C60C7-38A0-4623-903F-8774B974F66A}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{1FEFD5AB-D0AF-431E-92FB-54AC84B29910}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{1C67F6EA-33DB-422B-9FBC-2F208C0BD49C}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{B4A7B6AA-C96A-4E5F-9849-9744E4627DFC}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{6B006242-00C0-4649-8332-31A635155A91}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -1408,19 +1673,19 @@
       <selection activeCell="B19" sqref="B3:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="33"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1428,7 +1693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1436,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1444,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1452,7 +1717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1460,7 +1725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1468,7 +1733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1476,7 +1741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1484,7 +1749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1492,7 +1757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1500,7 +1765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1508,7 +1773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1516,7 +1781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1524,7 +1789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1532,7 +1797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1540,7 +1805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1548,7 +1813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1556,7 +1821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1580,26 +1845,26 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1619,7 +1884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1652,47 +1917,47 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="40"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1712,18 +1977,19 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>42</v>
       </c>
@@ -1732,36 +1998,32 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" s="45"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1777,17 +2039,13 @@
       <c r="E3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="45"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1798,22 +2056,18 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="45"/>
+      <c r="H4" s="41"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1824,32 +2078,23 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{391173D5-7A7D-484D-856B-B0F9EB8C2279}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{33ABF984-9656-4065-9BC2-CC308D5AA283}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{72F8F182-BD92-43A4-B6F4-99CF8869AADC}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1857,306 +2102,265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B5DAAB-2199-48A7-838F-946E9AD82ADD}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="F2" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="H2" s="56" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
+        <v>5</v>
+      </c>
+      <c r="C3" s="19">
+        <v>2</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="58">
+        <v>30602</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="55">
+        <v>94839859000</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18">
+        <v>6</v>
+      </c>
+      <c r="C4" s="20">
         <v>3</v>
       </c>
-      <c r="C3" s="22">
-        <v>2</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="26">
-        <v>30602</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="19">
-        <v>94839859000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="D4" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="58">
+        <v>37095</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="55">
+        <v>73556944057</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="25">
-        <v>3</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="26">
-        <v>37095</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="19">
-        <v>73556944057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21">
-        <v>3</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="B5" s="18">
+        <v>7</v>
+      </c>
+      <c r="C5" s="20">
         <v>4</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="E5" s="58">
         <v>28773</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="F5" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="19">
+      <c r="H5" s="55">
         <v>16839338002</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
-        <v>3</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="B6" s="18">
+        <v>8</v>
+      </c>
+      <c r="C6" s="20">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="26">
+      <c r="E6" s="58">
         <v>31333</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="F6" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="G6" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="19">
+      <c r="H6" s="55">
         <v>14332654765</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
-        <v>3</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="B7" s="18">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20">
         <v>6</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="E7" s="58">
         <v>27633</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="F7" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="G7" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="19">
+      <c r="H7" s="55">
         <v>91305348010</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="21">
-        <v>3</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="B8" s="18">
+        <v>10</v>
+      </c>
+      <c r="C8" s="20">
         <v>7</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="26">
+      <c r="E8" s="58">
         <v>26379</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="F8" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="G8" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="19">
+      <c r="H8" s="55">
         <v>79799299004</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="21">
-        <v>3</v>
-      </c>
-      <c r="C9" s="25">
+      <c r="B9" s="18">
+        <v>11</v>
+      </c>
+      <c r="C9" s="20">
         <v>8</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="E9" s="58">
         <v>43164</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="F9" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="G9" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="19">
+      <c r="H9" s="55">
         <v>13771913039</v>
       </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{8677BA59-E4D9-4C70-8B47-27589537E6ED}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{FE9ADEC7-76A0-4129-B72D-25AC55BBDA3A}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{BEE6941C-7D95-4BB6-B0AF-478C439B3B21}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{294649F0-9AD0-4280-8192-A9B0EA0CAF5A}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{C3D84659-225E-4729-ACB9-D950C6186B5C}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{6DEDAFFA-6C45-429E-AF0D-262D3B0734BB}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{A6868680-4A46-4D3F-8F9E-FC903E375FB9}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2166,65 +2370,54 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>55</v>
-      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{441307AE-6578-4EFE-9DC5-5199F07A400A}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2237,85 +2430,85 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="43"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2329,198 +2522,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E59EF5B-4B7A-4DF2-8D19-43B0336D6219}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="26">
         <v>2</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="26">
         <v>3</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="26">
         <v>7</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="27">
         <v>43850</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="28">
         <v>0.625</v>
       </c>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="26">
         <v>3</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="26">
         <v>2</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="26">
         <v>2</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="27">
         <v>43836</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="28">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="26">
         <v>2</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="26">
         <v>3</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="27">
         <v>43868</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="28">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="26">
         <v>2</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="26">
         <v>2</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="27">
         <v>43137</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="28">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="26">
         <v>3</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="26">
         <v>1</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="26">
         <v>4</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="27">
         <v>43503</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="28">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="26">
         <v>1</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="26">
         <v>3</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="26">
         <v>7</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="27">
         <v>43898</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="28">
         <v>0.625</v>
       </c>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="26">
         <v>1</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="26">
         <v>1</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="26">
         <v>4</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="27">
         <v>43899</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="28">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
